--- a/Clustering/Models.xlsx
+++ b/Clustering/Models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ZhangYuxuan/JetBrains/PyCharm/Python/PricePrediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98173\Desktop\AD Project\ML\ML\Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C62EC06-A05E-BA48-A2F4-E3BB2977A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB74F8B-7DC4-499E-8F35-2EA85A7EA341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="780" windowWidth="27160" windowHeight="19480" xr2:uid="{ACEF62E4-4ABA-B04E-9CD3-B6139B9C65E4}"/>
+    <workbookView xWindow="2550" yWindow="1670" windowWidth="19200" windowHeight="11710" xr2:uid="{ACEF62E4-4ABA-B04E-9CD3-B6139B9C65E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,21 +44,12 @@
     <t>Type</t>
   </si>
   <si>
-    <t>EOS-1D X Mark Ⅲ</t>
-  </si>
-  <si>
     <t>SLR</t>
   </si>
   <si>
-    <t>EOS-5D X Mark Ⅳ</t>
-  </si>
-  <si>
     <t>EOS 90D</t>
   </si>
   <si>
-    <t>EOS 200D Ⅱ</t>
-  </si>
-  <si>
     <t>EOS R3</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>EOS RP</t>
   </si>
   <si>
-    <t>G7 X Mark Ⅲ</t>
-  </si>
-  <si>
     <t>SX740 HS</t>
   </si>
   <si>
@@ -132,10 +120,6 @@
   </si>
   <si>
     <t>D850</t>
-  </si>
-  <si>
-    <t>α7CR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MIC</t>
@@ -206,6 +190,26 @@
   </si>
   <si>
     <t>Video_Rate</t>
+  </si>
+  <si>
+    <t>EOS-1D X Mark III</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS-5D X Mark IV</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS 200D II</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7 X Mark III</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha 7CR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -216,7 +220,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -224,7 +228,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -232,21 +236,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,7 +286,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,7 +302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -616,23 +620,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDC7278-7FBE-CC41-A871-E82E3393D704}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="16.69140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.84375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.84375" customWidth="1"/>
+    <col min="9" max="9" width="16.84375" customWidth="1"/>
+    <col min="10" max="10" width="18.84375" customWidth="1"/>
+    <col min="11" max="11" width="16.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -641,39 +646,39 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="5">
         <v>43836</v>
@@ -700,15 +705,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5">
         <v>42621</v>
@@ -735,15 +740,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5">
         <v>43705</v>
@@ -770,15 +775,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5">
         <v>43565</v>
@@ -805,15 +810,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>44453</v>
@@ -840,15 +845,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>44705</v>
@@ -875,15 +880,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5">
         <v>44965</v>
@@ -910,15 +915,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5">
         <v>43510</v>
@@ -945,15 +950,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>43655</v>
@@ -977,15 +982,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5">
         <v>43312</v>
@@ -1009,15 +1014,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5">
         <v>42375</v>
@@ -1041,15 +1046,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3">
         <v>45468</v>
@@ -1076,15 +1081,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
         <v>45211</v>
@@ -1111,15 +1116,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5">
         <v>45071</v>
@@ -1146,15 +1151,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5">
         <v>44118</v>
@@ -1181,15 +1186,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5">
         <v>44118</v>
@@ -1216,15 +1221,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="5">
         <v>44487</v>
@@ -1251,15 +1256,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" s="5">
         <v>44741</v>
@@ -1286,15 +1291,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="5">
         <v>44033</v>
@@ -1321,15 +1326,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5">
         <v>42837</v>
@@ -1356,15 +1361,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5">
         <v>42375</v>
@@ -1391,15 +1396,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5">
         <v>41894</v>
@@ -1426,15 +1431,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5">
         <v>42971</v>
@@ -1461,15 +1466,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5">
         <v>43837</v>
@@ -1493,15 +1498,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D26" s="5">
         <v>43291</v>
@@ -1525,15 +1530,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27" s="5">
         <v>43482</v>
@@ -1557,15 +1562,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D28" s="5">
         <v>42085</v>
@@ -1590,15 +1595,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D29" s="5">
         <v>45167</v>
@@ -1625,15 +1630,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D30" s="5">
         <v>45014</v>
@@ -1660,15 +1665,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D31" s="5">
         <v>43033</v>
@@ -1695,15 +1700,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D32" s="5">
         <v>45119</v>
@@ -1730,15 +1735,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33" s="5">
         <v>45237</v>
@@ -1765,15 +1770,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D34" s="5">
         <v>45069</v>
@@ -1800,15 +1805,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D35" s="5">
         <v>44847</v>
@@ -1835,15 +1840,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D36" s="5">
         <v>43977</v>
